--- a/Experiments/BenchmarkDataset-syntetic/timing result.xlsx
+++ b/Experiments/BenchmarkDataset-syntetic/timing result.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\FCM_GBFCM\August\Experiments\BenchmarkDataset-syntetic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\github projects\POCS_CLUSTERING\Experiments\BenchmarkDataset-syntetic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F388A5A-08A2-4F8A-B5AD-8D826EC04FE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B464B-275B-4A84-8D6F-63C960118C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3C2E31-2582-4B26-923D-02C203E0BE4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>a1</t>
   </si>
@@ -147,12 +148,111 @@
   </si>
   <si>
     <t>S1</t>
+  </si>
+  <si>
+    <t>a1_0.5674545764923096_fcm</t>
+  </si>
+  <si>
+    <t>a1_0.07878875732421875_pocs</t>
+  </si>
+  <si>
+    <t>a1_0.08776593208312988_kmeans</t>
+  </si>
+  <si>
+    <t>a1_76.96437501907349_apocs</t>
+  </si>
+  <si>
+    <t>a2_0.300203800201416_kmeans</t>
+  </si>
+  <si>
+    <t>a2_0.20046377182006836_pocs</t>
+  </si>
+  <si>
+    <t>a2_3.272275924682617_fcm</t>
+  </si>
+  <si>
+    <t>a2_434.73602390289307_apocs</t>
+  </si>
+  <si>
+    <t>Aggregation_0.0169827938079834_pocs</t>
+  </si>
+  <si>
+    <t>Aggregation_0.02895045280456543_kmeans</t>
+  </si>
+  <si>
+    <t>Aggregation_0.015957355499267578_fcm</t>
+  </si>
+  <si>
+    <t>Aggregation_6.035842418670654_apocs</t>
+  </si>
+  <si>
+    <t>flame_0.004007816314697266_fcm</t>
+  </si>
+  <si>
+    <t>flame_0.005955934524536133_pocs</t>
+  </si>
+  <si>
+    <t>flame_0.011967897415161133_kmeans</t>
+  </si>
+  <si>
+    <t>flame_1.419231653213501_apocs</t>
+  </si>
+  <si>
+    <t>R15_0.06081438064575195_fcm</t>
+  </si>
+  <si>
+    <t>R15_0.028944730758666992_pocs</t>
+  </si>
+  <si>
+    <t>R15_0.034906625747680664_kmeans</t>
+  </si>
+  <si>
+    <t>R15_3.8498547077178955_apocs</t>
+  </si>
+  <si>
+    <t>s1_0.5734658241271973_fcm</t>
+  </si>
+  <si>
+    <t>s1_0.08081531524658203_pocs</t>
+  </si>
+  <si>
+    <t>s1_0.08377647399902344_kmeans</t>
+  </si>
+  <si>
+    <t>s1_187.57442903518677_apocs</t>
+  </si>
+  <si>
+    <t>s2_0.6163263320922852_fcm</t>
+  </si>
+  <si>
+    <t>s2_0.09773874282836914_kmeans</t>
+  </si>
+  <si>
+    <t>s2_0.11269736289978027_pocs</t>
+  </si>
+  <si>
+    <t>s2_182.68075394630432_apocs</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,9 +282,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +599,495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8E40E-2E30-4192-B62E-D69F2FB424A3}">
+  <dimension ref="B1:W35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>0.56745457649230902</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.56745457649230902</v>
+      </c>
+      <c r="N2">
+        <v>7.8788757324218694E-2</v>
+      </c>
+      <c r="O2">
+        <v>8.77659320831298E-2</v>
+      </c>
+      <c r="P2">
+        <v>76.964375019073401</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>7.8788757324218694E-2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3.2722759246826101</v>
+      </c>
+      <c r="N3">
+        <v>0.200463771820068</v>
+      </c>
+      <c r="O3">
+        <v>0.30020380020141602</v>
+      </c>
+      <c r="P3">
+        <v>434.73602390289301</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>8.77659320831298E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4">
+        <v>1.5957355499267498E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.6982793807983398E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.8950452804565398E-2</v>
+      </c>
+      <c r="P4">
+        <v>6.0358424186706499</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>76.964375019073401</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>4.0078163146972604E-3</v>
+      </c>
+      <c r="N5">
+        <v>5.9559345245361302E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.19678974151611E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.4192316532135001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>6.0814380645751898E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.8944730758666899E-2</v>
+      </c>
+      <c r="O6">
+        <v>3.4906625747680602E-2</v>
+      </c>
+      <c r="P6">
+        <v>3.8498547077178902</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>0.30020380020141602</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7">
+        <v>0.57346582412719704</v>
+      </c>
+      <c r="N7">
+        <v>8.0815315246582003E-2</v>
+      </c>
+      <c r="O7">
+        <v>8.3776473999023396E-2</v>
+      </c>
+      <c r="P7">
+        <v>187.574429035186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>0.200463771820068</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <v>0.61632633209228505</v>
+      </c>
+      <c r="N8">
+        <v>0.11269736289978</v>
+      </c>
+      <c r="O8">
+        <v>9.7738742828369099E-2</v>
+      </c>
+      <c r="P8">
+        <v>182.68075394630401</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>3.2722759246826101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>434.73602390289301</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.56745457649230902</v>
+      </c>
+      <c r="U11" s="2">
+        <v>7.8788757324218694E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>8.77659320831298E-2</v>
+      </c>
+      <c r="W11" s="2">
+        <v>76.964375019073401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>1.6982793807983398E-2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>3.2722759246826101</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.200463771820068</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.30020380020141602</v>
+      </c>
+      <c r="W12" s="2">
+        <v>434.73602390289301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>2.8950452804565398E-2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1.5957355499267498E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1.6982793807983398E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2.8950452804565398E-2</v>
+      </c>
+      <c r="W13" s="2">
+        <v>6.0358424186706499</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <v>1.5957355499267498E-2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="2">
+        <v>4.0078163146972604E-3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>5.9559345245361302E-3</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1.19678974151611E-2</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1.4192316532135001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>6.0358424186706499</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="2">
+        <v>6.0814380645751898E-2</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2.8944730758666899E-2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3.4906625747680602E-2</v>
+      </c>
+      <c r="W15" s="2">
+        <v>3.8498547077178902</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.57346582412719704</v>
+      </c>
+      <c r="U16" s="2">
+        <v>8.0815315246582003E-2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>8.3776473999023396E-2</v>
+      </c>
+      <c r="W16" s="2">
+        <v>187.574429035186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <v>4.0078163146972604E-3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.61632633209228505</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.11269736289978</v>
+      </c>
+      <c r="V17" s="2">
+        <v>9.7738742828369099E-2</v>
+      </c>
+      <c r="W17" s="2">
+        <v>182.68075394630401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18">
+        <v>5.9559345245361302E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19">
+        <v>1.19678974151611E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>1.4192316532135001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22">
+        <v>6.0814380645751898E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>2.8944730758666899E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24">
+        <v>3.4906625747680602E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25">
+        <v>3.8498547077178902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27">
+        <v>0.57346582412719704</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>8.0815315246582003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29">
+        <v>8.3776473999023396E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30">
+        <v>187.574429035186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>0.61632633209228505</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>9.7738742828369099E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34">
+        <v>0.11269736289978</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35">
+        <v>182.68075394630401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D5170-41F4-45B3-B245-3354320EE5ED}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7:U14"/>
     </sheetView>
   </sheetViews>
